--- a/Code/Results/Cases/Case_5_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_164/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.515566945940407</v>
+        <v>1.287629211722731</v>
       </c>
       <c r="C2">
-        <v>1.015199242255846</v>
+        <v>0.3402632080236003</v>
       </c>
       <c r="D2">
-        <v>0.2341039917401133</v>
+        <v>0.2352893041228299</v>
       </c>
       <c r="E2">
-        <v>0.1808996051612866</v>
+        <v>0.1776475392211339</v>
       </c>
       <c r="F2">
-        <v>0.6273263858174474</v>
+        <v>1.091381633918587</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.1245038319314205</v>
+        <v>0.4404514370260948</v>
       </c>
       <c r="J2">
-        <v>0.1862036379674024</v>
+        <v>0.1793734731068</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.205642898248357</v>
+        <v>2.400617408154602</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.059033791418642</v>
+        <v>1.142681825063619</v>
       </c>
       <c r="C3">
-        <v>0.8847113746691946</v>
+        <v>0.2985870368923713</v>
       </c>
       <c r="D3">
-        <v>0.2080623294350232</v>
+        <v>0.2286407175794523</v>
       </c>
       <c r="E3">
-        <v>0.1610663970880353</v>
+        <v>0.1732199729132518</v>
       </c>
       <c r="F3">
-        <v>0.5906752210268706</v>
+        <v>1.095427471421289</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.1374410420045322</v>
+        <v>0.4510568956887298</v>
       </c>
       <c r="J3">
-        <v>0.1659222720127715</v>
+        <v>0.1753624964212861</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.160795183812141</v>
+        <v>2.424267857758338</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.779006218230677</v>
+        <v>1.053468655673839</v>
       </c>
       <c r="C4">
-        <v>0.8046508987548577</v>
+        <v>0.2729121377405761</v>
       </c>
       <c r="D4">
-        <v>0.1921982017098287</v>
+        <v>0.2246253972989365</v>
       </c>
       <c r="E4">
-        <v>0.1490661809576714</v>
+        <v>0.170583346297434</v>
       </c>
       <c r="F4">
-        <v>0.5700531039015644</v>
+        <v>1.098777232410193</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.1463529902079728</v>
+        <v>0.4580034490540967</v>
       </c>
       <c r="J4">
-        <v>0.1537356131936392</v>
+        <v>0.1730093420532199</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.138216265668746</v>
+        <v>2.440971406002078</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.664924268500044</v>
+        <v>1.017061812460497</v>
       </c>
       <c r="C5">
-        <v>0.7720291465937237</v>
+        <v>0.2624285278000968</v>
       </c>
       <c r="D5">
-        <v>0.185761739178929</v>
+        <v>0.2230060757803329</v>
       </c>
       <c r="E5">
-        <v>0.1442166460736587</v>
+        <v>0.1695295362741973</v>
       </c>
       <c r="F5">
-        <v>0.5620930119895675</v>
+        <v>1.100359546011774</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.1502157521856553</v>
+        <v>0.4609432486398308</v>
       </c>
       <c r="J5">
-        <v>0.148830642457412</v>
+        <v>0.1720779490771633</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.130185363833874</v>
+        <v>2.448325514310483</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.645981832633879</v>
+        <v>1.011013425886119</v>
       </c>
       <c r="C6">
-        <v>0.7666122249669343</v>
+        <v>0.2606864900856465</v>
       </c>
       <c r="D6">
-        <v>0.1846945868002479</v>
+        <v>0.2227382162644602</v>
       </c>
       <c r="E6">
-        <v>0.1434137280102519</v>
+        <v>0.1693557994635881</v>
       </c>
       <c r="F6">
-        <v>0.5607972009875297</v>
+        <v>1.10063539805423</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.150870765202443</v>
+        <v>0.4614379759974749</v>
       </c>
       <c r="J6">
-        <v>0.1480197100522673</v>
+        <v>0.1719249544422539</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.128920357776707</v>
+        <v>2.449579670792303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.777467592483333</v>
+        <v>1.052977866751974</v>
       </c>
       <c r="C7">
-        <v>0.8042109505743724</v>
+        <v>0.2727708358038683</v>
       </c>
       <c r="D7">
-        <v>0.1921112869258081</v>
+        <v>0.2246034897529938</v>
       </c>
       <c r="E7">
-        <v>0.1490006189214128</v>
+        <v>0.1705690506382993</v>
       </c>
       <c r="F7">
-        <v>0.5699439932140251</v>
+        <v>1.098797692910402</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.1464041651501873</v>
+        <v>0.4580426551914396</v>
       </c>
       <c r="J7">
-        <v>0.153669222627741</v>
+        <v>0.1729966694981684</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.138103318107341</v>
+        <v>2.441068372074113</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.358069751161338</v>
+        <v>1.237697270622846</v>
       </c>
       <c r="C8">
-        <v>0.9701874635797196</v>
+        <v>0.3259113889524201</v>
       </c>
       <c r="D8">
-        <v>0.2250967244095392</v>
+        <v>0.2329830487545195</v>
       </c>
       <c r="E8">
-        <v>0.1740218149282953</v>
+        <v>0.1761039334155825</v>
       </c>
       <c r="F8">
-        <v>0.6142801405212452</v>
+        <v>1.092596738313475</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.1287558811187797</v>
+        <v>0.4440177853716278</v>
       </c>
       <c r="J8">
-        <v>0.1791518104048748</v>
+        <v>0.1779677245160087</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.189103065496766</v>
+        <v>2.408318335605969</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.500917739597071</v>
+        <v>1.598144478682229</v>
       </c>
       <c r="C9">
-        <v>1.296715831610413</v>
+        <v>0.4294182518974594</v>
       </c>
       <c r="D9">
-        <v>0.2909388149613363</v>
+        <v>0.2499421218838052</v>
       </c>
       <c r="E9">
-        <v>0.2246900412027486</v>
+        <v>0.1876068884387436</v>
       </c>
       <c r="F9">
-        <v>0.7175800956564444</v>
+        <v>1.087324285797692</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.1024266617653762</v>
+        <v>0.4199777512684495</v>
       </c>
       <c r="J9">
-        <v>0.2315139762144298</v>
+        <v>0.1885874164418482</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.332125200969529</v>
+        <v>2.361474758672415</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.346314431843496</v>
+        <v>1.861792553738724</v>
       </c>
       <c r="C10">
-        <v>1.538149589266766</v>
+        <v>0.505014161003885</v>
       </c>
       <c r="D10">
-        <v>0.3402649796265109</v>
+        <v>0.2627187381344669</v>
       </c>
       <c r="E10">
-        <v>0.2631850604987349</v>
+        <v>0.1964537076048956</v>
       </c>
       <c r="F10">
-        <v>0.805573722189294</v>
+        <v>1.087678212699956</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.08901117667644343</v>
+        <v>0.4044438692803904</v>
       </c>
       <c r="J10">
-        <v>0.2718617886906856</v>
+        <v>0.196924606132626</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.468901467313202</v>
+        <v>2.337745632850073</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.732925499832902</v>
+        <v>1.981462728161716</v>
       </c>
       <c r="C11">
-        <v>1.648537678730293</v>
+        <v>0.5393025812857104</v>
       </c>
       <c r="D11">
-        <v>0.3629713806767541</v>
+        <v>0.2685991201592515</v>
       </c>
       <c r="E11">
-        <v>0.2810440709707365</v>
+        <v>0.2005643137564093</v>
       </c>
       <c r="F11">
-        <v>0.8487459388664291</v>
+        <v>1.088763494484311</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.08440789484932232</v>
+        <v>0.39784295483555</v>
       </c>
       <c r="J11">
-        <v>0.290726677282052</v>
+        <v>0.2008344094956271</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.539331923624218</v>
+        <v>2.329291069413074</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.879686718688447</v>
+        <v>2.026738800614737</v>
       </c>
       <c r="C12">
-        <v>1.690438912865204</v>
+        <v>0.5522717415474858</v>
       </c>
       <c r="D12">
-        <v>0.3716135615366909</v>
+        <v>0.2708355807727116</v>
       </c>
       <c r="E12">
-        <v>0.2878631846271347</v>
+        <v>0.2021332615412774</v>
       </c>
       <c r="F12">
-        <v>0.8655929518782699</v>
+        <v>1.089307848763852</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.0828997773033251</v>
+        <v>0.3954106240007711</v>
       </c>
       <c r="J12">
-        <v>0.2979529728613812</v>
+        <v>0.2023318455444922</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.567303481773649</v>
+        <v>2.326427615556014</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.848061917507493</v>
+        <v>2.016989623658105</v>
       </c>
       <c r="C13">
-        <v>1.681409972945573</v>
+        <v>0.5494792837974956</v>
       </c>
       <c r="D13">
-        <v>0.3697502783228543</v>
+        <v>0.2703534900808648</v>
       </c>
       <c r="E13">
-        <v>0.2863919561244828</v>
+        <v>0.2017948118586546</v>
       </c>
       <c r="F13">
-        <v>0.8619416852346404</v>
+        <v>1.089184672650958</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.0832137973363487</v>
+        <v>0.39593147155305</v>
       </c>
       <c r="J13">
-        <v>0.2963928339139557</v>
+        <v>0.2020085947674346</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.561219413504574</v>
+        <v>2.327029248373151</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.744992011957436</v>
+        <v>1.985188441542391</v>
       </c>
       <c r="C14">
-        <v>1.651982804034674</v>
+        <v>0.5403698687111955</v>
       </c>
       <c r="D14">
-        <v>0.363681469309725</v>
+        <v>0.2687829216774844</v>
       </c>
       <c r="E14">
-        <v>0.2816039171268727</v>
+        <v>0.2006931447238784</v>
       </c>
       <c r="F14">
-        <v>0.8501216785210204</v>
+        <v>1.088805602975896</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.08427899352574286</v>
+        <v>0.3976414948729623</v>
       </c>
       <c r="J14">
-        <v>0.2913194787672069</v>
+        <v>0.2009572660269612</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.541606358906137</v>
+        <v>2.329048705895303</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.681907699966189</v>
+        <v>1.965703964868112</v>
       </c>
       <c r="C15">
-        <v>1.633971396240042</v>
+        <v>0.5347881002741701</v>
       </c>
       <c r="D15">
-        <v>0.3599700113510522</v>
+        <v>0.267822161105471</v>
       </c>
       <c r="E15">
-        <v>0.278678633329271</v>
+        <v>0.2000199490965358</v>
       </c>
       <c r="F15">
-        <v>0.8429479695240047</v>
+        <v>1.088590796051108</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.08496267031305216</v>
+        <v>0.3986977073523885</v>
       </c>
       <c r="J15">
-        <v>0.28822294110293</v>
+        <v>0.2003154957384083</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.529765982640583</v>
+        <v>2.330329761496472</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.321095068359796</v>
+        <v>1.85396629775579</v>
       </c>
       <c r="C16">
-        <v>1.530948321457402</v>
+        <v>0.5027712521620629</v>
       </c>
       <c r="D16">
-        <v>0.3387868895101889</v>
+        <v>0.262335803737372</v>
       </c>
       <c r="E16">
-        <v>0.2620254526786496</v>
+        <v>0.1961868000946083</v>
       </c>
       <c r="F16">
-        <v>0.8028194672521636</v>
+        <v>1.0876259261629</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.08934381003861347</v>
+        <v>0.40488465207196</v>
       </c>
       <c r="J16">
-        <v>0.2706399616371016</v>
+        <v>0.1966714515954635</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.464473951641622</v>
+        <v>2.33834538300448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.100315620592198</v>
+        <v>1.785349379317552</v>
       </c>
       <c r="C17">
-        <v>1.467903287307763</v>
+        <v>0.4831037285050002</v>
       </c>
       <c r="D17">
-        <v>0.3258638992997192</v>
+        <v>0.2589874889391695</v>
       </c>
       <c r="E17">
-        <v>0.2519025919507598</v>
+        <v>0.1938573244432362</v>
       </c>
       <c r="F17">
-        <v>0.7790390106118537</v>
+        <v>1.087271075529245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.09242888319733389</v>
+        <v>0.4087996238564138</v>
       </c>
       <c r="J17">
-        <v>0.2599903956611769</v>
+        <v>0.1944659801298201</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.42660483933156</v>
+        <v>2.3438631787308</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.973516376354723</v>
+        <v>1.745857971651958</v>
       </c>
       <c r="C18">
-        <v>1.431692776005377</v>
+        <v>0.4717820651452485</v>
       </c>
       <c r="D18">
-        <v>0.318455791681771</v>
+        <v>0.2570680568396142</v>
       </c>
       <c r="E18">
-        <v>0.2461124825512755</v>
+        <v>0.1925255821061285</v>
       </c>
       <c r="F18">
-        <v>0.7656539900669515</v>
+        <v>1.087153944196444</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.09434322284217167</v>
+        <v>0.4110952086980451</v>
       </c>
       <c r="J18">
-        <v>0.2539125011248586</v>
+        <v>0.1932084785110533</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.405588534802206</v>
+        <v>2.347257017635343</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.930614539959322</v>
+        <v>1.732482677737721</v>
       </c>
       <c r="C19">
-        <v>1.419440773924521</v>
+        <v>0.4679471462209221</v>
       </c>
       <c r="D19">
-        <v>0.3159516492103336</v>
+        <v>0.2564192782818964</v>
       </c>
       <c r="E19">
-        <v>0.2441574128752109</v>
+        <v>0.1920760711397591</v>
       </c>
       <c r="F19">
-        <v>0.7611709948399294</v>
+        <v>1.087129208231261</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.09501484465469368</v>
+        <v>0.4118799657276764</v>
       </c>
       <c r="J19">
-        <v>0.2518625140377964</v>
+        <v>0.1927846031289846</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.398600657155328</v>
+        <v>2.34844387434336</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.123798121468326</v>
+        <v>1.792656348374635</v>
       </c>
       <c r="C20">
-        <v>1.474609092528169</v>
+        <v>0.4851983501445147</v>
       </c>
       <c r="D20">
-        <v>0.3272369645749222</v>
+        <v>0.2593432581890909</v>
       </c>
       <c r="E20">
-        <v>0.2529768014392246</v>
+        <v>0.1941044619716763</v>
       </c>
       <c r="F20">
-        <v>0.7815398446449677</v>
+        <v>1.087299845560025</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.09208585841010475</v>
+        <v>0.4083783331028084</v>
       </c>
       <c r="J20">
-        <v>0.2611190848932807</v>
+        <v>0.1946996148461295</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.430556054924637</v>
+        <v>2.343253003588757</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.775255805377697</v>
+        <v>1.994530335469449</v>
       </c>
       <c r="C21">
-        <v>1.660623409160905</v>
+        <v>0.5430459403470422</v>
       </c>
       <c r="D21">
-        <v>0.3654627937817452</v>
+        <v>0.2692439737592167</v>
       </c>
       <c r="E21">
-        <v>0.2830086992676257</v>
+        <v>0.2010163961711058</v>
       </c>
       <c r="F21">
-        <v>0.8535795773861992</v>
+        <v>1.088913321237627</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.08395957781759478</v>
+        <v>0.3971373904914568</v>
       </c>
       <c r="J21">
-        <v>0.2928073281731258</v>
+        <v>0.2012656084578168</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.547330867208132</v>
+        <v>2.328446353231499</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.203155067049522</v>
+        <v>2.126229946432659</v>
       </c>
       <c r="C22">
-        <v>1.782785706292373</v>
+        <v>0.5807642492007972</v>
       </c>
       <c r="D22">
-        <v>0.3907034240615701</v>
+        <v>0.2757710730726046</v>
       </c>
       <c r="E22">
-        <v>0.3029677447398456</v>
+        <v>0.205605715696656</v>
       </c>
       <c r="F22">
-        <v>0.9035926394906113</v>
+        <v>1.090745489015333</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.0800287990368318</v>
+        <v>0.3901831775703073</v>
       </c>
       <c r="J22">
-        <v>0.3140035591323453</v>
+        <v>0.2056552583962628</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.631297025389557</v>
+        <v>2.320740843004842</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.974558090337155</v>
+        <v>2.055961819632387</v>
       </c>
       <c r="C23">
-        <v>1.717524433018639</v>
+        <v>0.5606415869202124</v>
       </c>
       <c r="D23">
-        <v>0.3772065719135185</v>
+        <v>0.2722823167964208</v>
       </c>
       <c r="E23">
-        <v>0.2922826605584703</v>
+        <v>0.2031497362580978</v>
       </c>
       <c r="F23">
-        <v>0.8766151042180894</v>
+        <v>1.089696314427499</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.08199359865704992</v>
+        <v>0.3938587522606642</v>
       </c>
       <c r="J23">
-        <v>0.302643010294716</v>
+        <v>0.2033034070144737</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.58574049289237</v>
+        <v>2.324672490841067</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.113181283529627</v>
+        <v>1.789353000266146</v>
       </c>
       <c r="C24">
-        <v>1.471577290663049</v>
+        <v>0.4842514169519063</v>
       </c>
       <c r="D24">
-        <v>0.3266161352150476</v>
+        <v>0.2591823975887024</v>
       </c>
       <c r="E24">
-        <v>0.2524910594234342</v>
+        <v>0.1939927077186425</v>
       </c>
       <c r="F24">
-        <v>0.7804083281083507</v>
+        <v>1.087286568044988</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.09224050314781707</v>
+        <v>0.4085686590790001</v>
       </c>
       <c r="J24">
-        <v>0.2606086659979212</v>
+        <v>0.1945939560334722</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.42876736720757</v>
+        <v>2.343528173659593</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.19098040562875</v>
+        <v>1.500833966781329</v>
       </c>
       <c r="C25">
-        <v>1.208181292222719</v>
+        <v>0.4014944072807225</v>
       </c>
       <c r="D25">
-        <v>0.2729785665103606</v>
+        <v>0.2452983013397585</v>
       </c>
       <c r="E25">
-        <v>0.2107825973429485</v>
+        <v>0.184425557943861</v>
       </c>
       <c r="F25">
-        <v>0.6876734536374585</v>
+        <v>1.088010284904712</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.1085759480059654</v>
+        <v>0.4261087158098569</v>
       </c>
       <c r="J25">
-        <v>0.2170512605952553</v>
+        <v>0.1856208368360797</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.28828835694938</v>
+        <v>2.372277102684166</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_164/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.287629211722731</v>
+        <v>3.515566945940463</v>
       </c>
       <c r="C2">
-        <v>0.3402632080236003</v>
+        <v>1.01519924225579</v>
       </c>
       <c r="D2">
-        <v>0.2352893041228299</v>
+        <v>0.2341039917400991</v>
       </c>
       <c r="E2">
-        <v>0.1776475392211339</v>
+        <v>0.1808996051613008</v>
       </c>
       <c r="F2">
-        <v>1.091381633918587</v>
+        <v>0.6273263858174474</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.4404514370260948</v>
+        <v>0.1245038319314169</v>
       </c>
       <c r="J2">
-        <v>0.1793734731068</v>
+        <v>0.186203637967445</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.400617408154602</v>
+        <v>1.205642898248414</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.142681825063619</v>
+        <v>3.059033791418528</v>
       </c>
       <c r="C3">
-        <v>0.2985870368923713</v>
+        <v>0.8847113746692514</v>
       </c>
       <c r="D3">
-        <v>0.2286407175794523</v>
+        <v>0.2080623294350232</v>
       </c>
       <c r="E3">
-        <v>0.1732199729132518</v>
+        <v>0.1610663970880495</v>
       </c>
       <c r="F3">
-        <v>1.095427471421289</v>
+        <v>0.5906752210268493</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.4510568956887298</v>
+        <v>0.1374410420045233</v>
       </c>
       <c r="J3">
-        <v>0.1753624964212861</v>
+        <v>0.1659222720127289</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.424267857758338</v>
+        <v>1.16079518381224</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.053468655673839</v>
+        <v>2.779006218230506</v>
       </c>
       <c r="C4">
-        <v>0.2729121377405761</v>
+        <v>0.8046508987548577</v>
       </c>
       <c r="D4">
-        <v>0.2246253972989365</v>
+        <v>0.1921982017099708</v>
       </c>
       <c r="E4">
-        <v>0.170583346297434</v>
+        <v>0.1490661809576537</v>
       </c>
       <c r="F4">
-        <v>1.098777232410193</v>
+        <v>0.5700531039015644</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.4580034490540967</v>
+        <v>0.1463529902079692</v>
       </c>
       <c r="J4">
-        <v>0.1730093420532199</v>
+        <v>0.1537356131935113</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.440971406002078</v>
+        <v>1.138216265668731</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.017061812460497</v>
+        <v>2.664924268500044</v>
       </c>
       <c r="C5">
-        <v>0.2624285278000968</v>
+        <v>0.7720291465939226</v>
       </c>
       <c r="D5">
-        <v>0.2230060757803329</v>
+        <v>0.185761739178929</v>
       </c>
       <c r="E5">
-        <v>0.1695295362741973</v>
+        <v>0.14421664607368</v>
       </c>
       <c r="F5">
-        <v>1.100359546011774</v>
+        <v>0.5620930119895249</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.4609432486398308</v>
+        <v>0.1502157521856518</v>
       </c>
       <c r="J5">
-        <v>0.1720779490771633</v>
+        <v>0.1488306424573622</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.448325514310483</v>
+        <v>1.130185363833817</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.011013425886119</v>
+        <v>2.645981832633822</v>
       </c>
       <c r="C6">
-        <v>0.2606864900856465</v>
+        <v>0.7666122249669058</v>
       </c>
       <c r="D6">
-        <v>0.2227382162644602</v>
+        <v>0.184694586800191</v>
       </c>
       <c r="E6">
-        <v>0.1693557994635881</v>
+        <v>0.1434137280102625</v>
       </c>
       <c r="F6">
-        <v>1.10063539805423</v>
+        <v>0.5607972009875439</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.4614379759974749</v>
+        <v>0.150870765202443</v>
       </c>
       <c r="J6">
-        <v>0.1719249544422539</v>
+        <v>0.148019710052246</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.449579670792303</v>
+        <v>1.128920357776735</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.052977866751974</v>
+        <v>2.777467592483333</v>
       </c>
       <c r="C7">
-        <v>0.2727708358038683</v>
+        <v>0.8042109505744293</v>
       </c>
       <c r="D7">
-        <v>0.2246034897529938</v>
+        <v>0.1921112869257939</v>
       </c>
       <c r="E7">
-        <v>0.1705690506382993</v>
+        <v>0.1490006189214235</v>
       </c>
       <c r="F7">
-        <v>1.098797692910402</v>
+        <v>0.5699439932140038</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.4580426551914396</v>
+        <v>0.1464041651501784</v>
       </c>
       <c r="J7">
-        <v>0.1729966694981684</v>
+        <v>0.1536692226277339</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.441068372074113</v>
+        <v>1.138103318107326</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.237697270622846</v>
+        <v>3.358069751161281</v>
       </c>
       <c r="C8">
-        <v>0.3259113889524201</v>
+        <v>0.9701874635797481</v>
       </c>
       <c r="D8">
-        <v>0.2329830487545195</v>
+        <v>0.2250967244094824</v>
       </c>
       <c r="E8">
-        <v>0.1761039334155825</v>
+        <v>0.1740218149282882</v>
       </c>
       <c r="F8">
-        <v>1.092596738313475</v>
+        <v>0.6142801405212523</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.4440177853716278</v>
+        <v>0.1287558811187814</v>
       </c>
       <c r="J8">
-        <v>0.1779677245160087</v>
+        <v>0.1791518104049175</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.408318335605969</v>
+        <v>1.189103065496738</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.598144478682229</v>
+        <v>4.500917739597071</v>
       </c>
       <c r="C9">
-        <v>0.4294182518974594</v>
+        <v>1.296715831610754</v>
       </c>
       <c r="D9">
-        <v>0.2499421218838052</v>
+        <v>0.2909388149612226</v>
       </c>
       <c r="E9">
-        <v>0.1876068884387436</v>
+        <v>0.2246900412027486</v>
       </c>
       <c r="F9">
-        <v>1.087324285797692</v>
+        <v>0.7175800956564444</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.4199777512684495</v>
+        <v>0.1024266617653868</v>
       </c>
       <c r="J9">
-        <v>0.1885874164418482</v>
+        <v>0.2315139762144298</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.361474758672415</v>
+        <v>1.332125200969472</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.861792553738724</v>
+        <v>5.346314431843894</v>
       </c>
       <c r="C10">
-        <v>0.505014161003885</v>
+        <v>1.53814958926688</v>
       </c>
       <c r="D10">
-        <v>0.2627187381344669</v>
+        <v>0.3402649796262978</v>
       </c>
       <c r="E10">
-        <v>0.1964537076048956</v>
+        <v>0.2631850604987278</v>
       </c>
       <c r="F10">
-        <v>1.087678212699956</v>
+        <v>0.8055737221892514</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.4044438692803904</v>
+        <v>0.08901117667647362</v>
       </c>
       <c r="J10">
-        <v>0.196924606132626</v>
+        <v>0.2718617886906856</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.337745632850073</v>
+        <v>1.468901467313202</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.981462728161716</v>
+        <v>5.732925499833243</v>
       </c>
       <c r="C11">
-        <v>0.5393025812857104</v>
+        <v>1.648537678730747</v>
       </c>
       <c r="D11">
-        <v>0.2685991201592515</v>
+        <v>0.3629713806765693</v>
       </c>
       <c r="E11">
-        <v>0.2005643137564093</v>
+        <v>0.2810440709707223</v>
       </c>
       <c r="F11">
-        <v>1.088763494484311</v>
+        <v>0.8487459388664291</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.39784295483555</v>
+        <v>0.08440789484932409</v>
       </c>
       <c r="J11">
-        <v>0.2008344094956271</v>
+        <v>0.2907266772820947</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.329291069413074</v>
+        <v>1.539331923624246</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.026738800614737</v>
+        <v>5.879686718688276</v>
       </c>
       <c r="C12">
-        <v>0.5522717415474858</v>
+        <v>1.690438912865318</v>
       </c>
       <c r="D12">
-        <v>0.2708355807727116</v>
+        <v>0.3716135615365204</v>
       </c>
       <c r="E12">
-        <v>0.2021332615412774</v>
+        <v>0.2878631846271347</v>
       </c>
       <c r="F12">
-        <v>1.089307848763852</v>
+        <v>0.8655929518782699</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.3954106240007711</v>
+        <v>0.08289977730330733</v>
       </c>
       <c r="J12">
-        <v>0.2023318455444922</v>
+        <v>0.2979529728613102</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.326427615556014</v>
+        <v>1.567303481773649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.016989623658105</v>
+        <v>5.848061917507266</v>
       </c>
       <c r="C13">
-        <v>0.5494792837974956</v>
+        <v>1.681409972945517</v>
       </c>
       <c r="D13">
-        <v>0.2703534900808648</v>
+        <v>0.3697502783228828</v>
       </c>
       <c r="E13">
-        <v>0.2017948118586546</v>
+        <v>0.2863919561244685</v>
       </c>
       <c r="F13">
-        <v>1.089184672650958</v>
+        <v>0.8619416852346262</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.39593147155305</v>
+        <v>0.08321379733635226</v>
       </c>
       <c r="J13">
-        <v>0.2020085947674346</v>
+        <v>0.2963928339140267</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.327029248373151</v>
+        <v>1.561219413504574</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.985188441542391</v>
+        <v>5.744992011957606</v>
       </c>
       <c r="C14">
-        <v>0.5403698687111955</v>
+        <v>1.651982804034787</v>
       </c>
       <c r="D14">
-        <v>0.2687829216774844</v>
+        <v>0.3636814693100661</v>
       </c>
       <c r="E14">
-        <v>0.2006931447238784</v>
+        <v>0.2816039171268301</v>
       </c>
       <c r="F14">
-        <v>1.088805602975896</v>
+        <v>0.8501216785210346</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.3976414948729623</v>
+        <v>0.08427899352572688</v>
       </c>
       <c r="J14">
-        <v>0.2009572660269612</v>
+        <v>0.2913194787671785</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.329048705895303</v>
+        <v>1.541606358906108</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.965703964868112</v>
+        <v>5.681907699966473</v>
       </c>
       <c r="C15">
-        <v>0.5347881002741701</v>
+        <v>1.633971396239986</v>
       </c>
       <c r="D15">
-        <v>0.267822161105471</v>
+        <v>0.3599700113509954</v>
       </c>
       <c r="E15">
-        <v>0.2000199490965358</v>
+        <v>0.2786786333292639</v>
       </c>
       <c r="F15">
-        <v>1.088590796051108</v>
+        <v>0.8429479695239905</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.3986977073523885</v>
+        <v>0.08496267031305216</v>
       </c>
       <c r="J15">
-        <v>0.2003154957384083</v>
+        <v>0.2882229411028874</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.330329761496472</v>
+        <v>1.529765982640583</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.85396629775579</v>
+        <v>5.321095068359682</v>
       </c>
       <c r="C16">
-        <v>0.5027712521620629</v>
+        <v>1.530948321457402</v>
       </c>
       <c r="D16">
-        <v>0.262335803737372</v>
+        <v>0.338786889510132</v>
       </c>
       <c r="E16">
-        <v>0.1961868000946083</v>
+        <v>0.2620254526786283</v>
       </c>
       <c r="F16">
-        <v>1.0876259261629</v>
+        <v>0.8028194672521636</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.40488465207196</v>
+        <v>0.08934381003862946</v>
       </c>
       <c r="J16">
-        <v>0.1966714515954635</v>
+        <v>0.2706399616370589</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.33834538300448</v>
+        <v>1.464473951641679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.785349379317552</v>
+        <v>5.100315620592255</v>
       </c>
       <c r="C17">
-        <v>0.4831037285050002</v>
+        <v>1.467903287307593</v>
       </c>
       <c r="D17">
-        <v>0.2589874889391695</v>
+        <v>0.325863899299577</v>
       </c>
       <c r="E17">
-        <v>0.1938573244432362</v>
+        <v>0.2519025919507527</v>
       </c>
       <c r="F17">
-        <v>1.087271075529245</v>
+        <v>0.7790390106118679</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.4087996238564138</v>
+        <v>0.09242888319733034</v>
       </c>
       <c r="J17">
-        <v>0.1944659801298201</v>
+        <v>0.2599903956611911</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.3438631787308</v>
+        <v>1.426604839331475</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.745857971651958</v>
+        <v>4.973516376354723</v>
       </c>
       <c r="C18">
-        <v>0.4717820651452485</v>
+        <v>1.431692776005491</v>
       </c>
       <c r="D18">
-        <v>0.2570680568396142</v>
+        <v>0.3184557916818704</v>
       </c>
       <c r="E18">
-        <v>0.1925255821061285</v>
+        <v>0.2461124825512755</v>
       </c>
       <c r="F18">
-        <v>1.087153944196444</v>
+        <v>0.7656539900669515</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.4110952086980451</v>
+        <v>0.09434322284217167</v>
       </c>
       <c r="J18">
-        <v>0.1932084785110533</v>
+        <v>0.2539125011248728</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.347257017635343</v>
+        <v>1.405588534802206</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.732482677737721</v>
+        <v>4.930614539959265</v>
       </c>
       <c r="C19">
-        <v>0.4679471462209221</v>
+        <v>1.41944077392435</v>
       </c>
       <c r="D19">
-        <v>0.2564192782818964</v>
+        <v>0.3159516492102625</v>
       </c>
       <c r="E19">
-        <v>0.1920760711397591</v>
+        <v>0.2441574128752322</v>
       </c>
       <c r="F19">
-        <v>1.087129208231261</v>
+        <v>0.7611709948399294</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.4118799657276764</v>
+        <v>0.09501484465468835</v>
       </c>
       <c r="J19">
-        <v>0.1927846031289846</v>
+        <v>0.2518625140378674</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.34844387434336</v>
+        <v>1.398600657155384</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.792656348374635</v>
+        <v>5.123798121468042</v>
       </c>
       <c r="C20">
-        <v>0.4851983501445147</v>
+        <v>1.474609092527942</v>
       </c>
       <c r="D20">
-        <v>0.2593432581890909</v>
+        <v>0.3272369645748654</v>
       </c>
       <c r="E20">
-        <v>0.1941044619716763</v>
+        <v>0.2529768014392388</v>
       </c>
       <c r="F20">
-        <v>1.087299845560025</v>
+        <v>0.7815398446449677</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.4083783331028084</v>
+        <v>0.0920858584101083</v>
       </c>
       <c r="J20">
-        <v>0.1946996148461295</v>
+        <v>0.2611190848933518</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.343253003588757</v>
+        <v>1.430556054924665</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.994530335469449</v>
+        <v>5.775255805377697</v>
       </c>
       <c r="C21">
-        <v>0.5430459403470422</v>
+        <v>1.660623409160962</v>
       </c>
       <c r="D21">
-        <v>0.2692439737592167</v>
+        <v>0.3654627937818447</v>
       </c>
       <c r="E21">
-        <v>0.2010163961711058</v>
+        <v>0.2830086992676186</v>
       </c>
       <c r="F21">
-        <v>1.088913321237627</v>
+        <v>0.8535795773862134</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.3971373904914568</v>
+        <v>0.08395957781760899</v>
       </c>
       <c r="J21">
-        <v>0.2012656084578168</v>
+        <v>0.2928073281731258</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.328446353231499</v>
+        <v>1.547330867208132</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.126229946432659</v>
+        <v>6.203155067049579</v>
       </c>
       <c r="C22">
-        <v>0.5807642492007972</v>
+        <v>1.782785706292145</v>
       </c>
       <c r="D22">
-        <v>0.2757710730726046</v>
+        <v>0.3907034240615985</v>
       </c>
       <c r="E22">
-        <v>0.205605715696656</v>
+        <v>0.3029677447398385</v>
       </c>
       <c r="F22">
-        <v>1.090745489015333</v>
+        <v>0.9035926394906113</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.3901831775703073</v>
+        <v>0.08002879903684956</v>
       </c>
       <c r="J22">
-        <v>0.2056552583962628</v>
+        <v>0.3140035591323453</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.320740843004842</v>
+        <v>1.631297025389586</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.055961819632387</v>
+        <v>5.974558090337268</v>
       </c>
       <c r="C23">
-        <v>0.5606415869202124</v>
+        <v>1.717524433018923</v>
       </c>
       <c r="D23">
-        <v>0.2722823167964208</v>
+        <v>0.3772065719135043</v>
       </c>
       <c r="E23">
-        <v>0.2031497362580978</v>
+        <v>0.2922826605584703</v>
       </c>
       <c r="F23">
-        <v>1.089696314427499</v>
+        <v>0.8766151042181036</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.3938587522606642</v>
+        <v>0.08199359865703926</v>
       </c>
       <c r="J23">
-        <v>0.2033034070144737</v>
+        <v>0.3026430102947728</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.324672490841067</v>
+        <v>1.585740492892398</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.789353000266146</v>
+        <v>5.113181283529457</v>
       </c>
       <c r="C24">
-        <v>0.4842514169519063</v>
+        <v>1.471577290662879</v>
       </c>
       <c r="D24">
-        <v>0.2591823975887024</v>
+        <v>0.3266161352151755</v>
       </c>
       <c r="E24">
-        <v>0.1939927077186425</v>
+        <v>0.2524910594234342</v>
       </c>
       <c r="F24">
-        <v>1.087286568044988</v>
+        <v>0.7804083281083365</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.4085686590790001</v>
+        <v>0.09224050314780108</v>
       </c>
       <c r="J24">
-        <v>0.1945939560334722</v>
+        <v>0.2606086659979781</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.343528173659593</v>
+        <v>1.428767367207541</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.500833966781329</v>
+        <v>4.19098040562875</v>
       </c>
       <c r="C25">
-        <v>0.4014944072807225</v>
+        <v>1.208181292222889</v>
       </c>
       <c r="D25">
-        <v>0.2452983013397585</v>
+        <v>0.2729785665105595</v>
       </c>
       <c r="E25">
-        <v>0.184425557943861</v>
+        <v>0.2107825973429485</v>
       </c>
       <c r="F25">
-        <v>1.088010284904712</v>
+        <v>0.6876734536374727</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.4261087158098569</v>
+        <v>0.1085759480059671</v>
       </c>
       <c r="J25">
-        <v>0.1856208368360797</v>
+        <v>0.2170512605951842</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.372277102684166</v>
+        <v>1.288288356949437</v>
       </c>
     </row>
   </sheetData>
